--- a/xlsx/issues.xlsx
+++ b/xlsx/issues.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\dev\php\workspace\JIRA\jira-automated-tasks\xlsx\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\dev\php\workspace\git\jira-command-line-tasks\xlsx\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -19,57 +19,18 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
   <si>
-    <t>Clé</t>
+    <t>Key</t>
   </si>
   <si>
-    <t>Résumé</t>
+    <t>Reporter</t>
   </si>
   <si>
-    <t>Statut</t>
+    <t>Status</t>
   </si>
   <si>
-    <t>Rapporteur</t>
-  </si>
-  <si>
-    <t>Date de création</t>
-  </si>
-  <si>
-    <t>Date d'échéance</t>
-  </si>
-  <si>
-    <t>Date de résolution</t>
-  </si>
-  <si>
-    <t>Temps de résolution (en jours)</t>
-  </si>
-  <si>
-    <t>Responsable</t>
-  </si>
-  <si>
-    <t>Sévérité</t>
-  </si>
-  <si>
-    <t>Root cause Categorie</t>
-  </si>
-  <si>
-    <t>Root cause</t>
-  </si>
-  <si>
-    <t>Label</t>
-  </si>
-  <si>
-    <t>Type dépôt</t>
-  </si>
-  <si>
-    <t>Produit</t>
-  </si>
-  <si>
-    <t>Catégorie incident</t>
-  </si>
-  <si>
-    <t>Description</t>
+    <t>Summary</t>
   </si>
 </sst>
 </file>
@@ -108,11 +69,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -393,68 +355,27 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Q1"/>
+  <dimension ref="A1:D1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H9" sqref="H9"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="16384" width="11" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="2" t="s">
         <v>3</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="O1" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="P1" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="Q1" s="1" t="s">
-        <v>16</v>
       </c>
     </row>
   </sheetData>

--- a/xlsx/issues.xlsx
+++ b/xlsx/issues.xlsx
@@ -19,18 +19,21 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
   <si>
     <t>Key</t>
   </si>
   <si>
-    <t>Reporter</t>
-  </si>
-  <si>
     <t>Status</t>
   </si>
   <si>
     <t>Summary</t>
+  </si>
+  <si>
+    <t>Created Date</t>
+  </si>
+  <si>
+    <t>Assignee</t>
   </si>
 </sst>
 </file>
@@ -355,16 +358,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D1"/>
+  <dimension ref="A1:E1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E6" sqref="E6"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="16384" width="11" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -372,10 +377,13 @@
         <v>1</v>
       </c>
       <c r="C1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="E1" s="2" t="s">
         <v>2</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>3</v>
       </c>
     </row>
   </sheetData>
